--- a/src/test/resources/testdata/VOLHO3.xlsx
+++ b/src/test/resources/testdata/VOLHO3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYavas\git\AutomationCucumber2023\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC46D685-E19C-47D6-8236-856E536D6560}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9396A69E-ED85-4D5D-946E-3EB6667BD82C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="19416" windowHeight="10416" xr2:uid="{CD3A54CB-C005-0E4A-932C-421D6A132F4C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="37">
   <si>
     <t>FirstName</t>
   </si>
@@ -132,7 +132,10 @@
     <t>33811</t>
   </si>
   <si>
-    <t>07302023</t>
+    <t>11012023</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -507,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D793F7-630D-9741-BAE5-9B86014DDE1E}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
@@ -621,8 +624,8 @@
       <c r="M2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="6">
-        <v>2022</v>
+      <c r="N2" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>29</v>
@@ -671,8 +674,8 @@
       <c r="M3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="6">
-        <v>2022</v>
+      <c r="N3" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>29</v>
@@ -682,52 +685,304 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>33837</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4">
+        <v>33837</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4">
+        <v>33837</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>

--- a/src/test/resources/testdata/VOLHO3.xlsx
+++ b/src/test/resources/testdata/VOLHO3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYavas\git\AutomationCucumber2023\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9396A69E-ED85-4D5D-946E-3EB6667BD82C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC3F7BC-5C7E-4BDB-A28C-A7B6E04D1541}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="19416" windowHeight="10416" xr2:uid="{CD3A54CB-C005-0E4A-932C-421D6A132F4C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="36">
   <si>
     <t>FirstName</t>
   </si>
@@ -123,19 +123,16 @@
     <t>Economy</t>
   </si>
   <si>
-    <t>Standard</t>
+    <t>12012023</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
   <si>
     <t>6268 Dolostone Dr</t>
   </si>
   <si>
     <t>33811</t>
-  </si>
-  <si>
-    <t>11012023</t>
-  </si>
-  <si>
-    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -508,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D793F7-630D-9741-BAE5-9B86014DDE1E}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
@@ -601,7 +598,7 @@
         <v>33837</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>14</v>
@@ -610,7 +607,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>25</v>
@@ -625,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>29</v>
@@ -645,13 +642,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>14</v>
@@ -660,7 +657,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>26</v>
@@ -675,13 +672,13 @@
         <v>24</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="21" x14ac:dyDescent="0.4">
@@ -701,7 +698,7 @@
         <v>33837</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>14</v>
@@ -710,7 +707,7 @@
         <v>16</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>25</v>
@@ -725,7 +722,7 @@
         <v>24</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>29</v>
@@ -745,13 +742,13 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>14</v>
@@ -760,7 +757,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>26</v>
@@ -775,13 +772,13 @@
         <v>24</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="21" x14ac:dyDescent="0.4">
@@ -801,7 +798,7 @@
         <v>33837</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>14</v>
@@ -810,7 +807,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>25</v>
@@ -825,7 +822,7 @@
         <v>24</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>29</v>
@@ -834,7 +831,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -845,13 +842,13 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>14</v>
@@ -860,7 +857,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>26</v>
@@ -875,13 +872,13 @@
         <v>24</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="21" x14ac:dyDescent="0.4">
@@ -901,7 +898,7 @@
         <v>33837</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>14</v>
@@ -910,7 +907,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>25</v>
@@ -925,7 +922,7 @@
         <v>24</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>29</v>
@@ -935,78 +932,12 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testdata/VOLHO3.xlsx
+++ b/src/test/resources/testdata/VOLHO3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYavas\git\AutomationCucumber2023\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC3F7BC-5C7E-4BDB-A28C-A7B6E04D1541}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7743918-B937-4B37-AC9A-68DF66E0F379}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="19416" windowHeight="10416" xr2:uid="{CD3A54CB-C005-0E4A-932C-421D6A132F4C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
   <si>
     <t>FirstName</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Economy</t>
   </si>
   <si>
-    <t>12012023</t>
-  </si>
-  <si>
     <t>2023</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>33811</t>
+  </si>
+  <si>
+    <t>12192023</t>
   </si>
 </sst>
 </file>
@@ -505,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D793F7-630D-9741-BAE5-9B86014DDE1E}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
@@ -598,7 +598,7 @@
         <v>33837</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>14</v>
@@ -607,7 +607,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>25</v>
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>29</v>
@@ -642,13 +642,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>14</v>
@@ -657,7 +657,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>26</v>
@@ -672,7 +672,7 @@
         <v>24</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>29</v>
@@ -698,7 +698,7 @@
         <v>33837</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>14</v>
@@ -707,7 +707,7 @@
         <v>16</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>25</v>
@@ -722,7 +722,7 @@
         <v>24</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>29</v>
@@ -742,13 +742,13 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>14</v>
@@ -757,7 +757,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>26</v>
@@ -772,7 +772,7 @@
         <v>24</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>29</v>
@@ -798,7 +798,7 @@
         <v>33837</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>14</v>
@@ -807,7 +807,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>25</v>
@@ -822,7 +822,7 @@
         <v>24</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>29</v>
@@ -831,113 +831,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4">
-        <v>33837</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+    <row r="7" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testdata/VOLHO3.xlsx
+++ b/src/test/resources/testdata/VOLHO3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYavas\git\AutomationCucumber2023\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7743918-B937-4B37-AC9A-68DF66E0F379}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B53A66B-4AAA-4F78-9624-E850D25F748C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="19416" windowHeight="10416" xr2:uid="{CD3A54CB-C005-0E4A-932C-421D6A132F4C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>FirstName</t>
   </si>
@@ -132,7 +132,7 @@
     <t>33811</t>
   </si>
   <si>
-    <t>12192023</t>
+    <t>12272023</t>
   </si>
 </sst>
 </file>
@@ -505,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D793F7-630D-9741-BAE5-9B86014DDE1E}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
@@ -682,162 +682,12 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4">
-        <v>33837</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4">
-        <v>33837</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testdata/VOLHO3.xlsx
+++ b/src/test/resources/testdata/VOLHO3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYavas\git\AutomationCucumber2023\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B53A66B-4AAA-4F78-9624-E850D25F748C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E32662-E97D-483D-92C3-26A0649ED147}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="19416" windowHeight="10416" xr2:uid="{CD3A54CB-C005-0E4A-932C-421D6A132F4C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
   <si>
     <t>FirstName</t>
   </si>
@@ -132,7 +132,22 @@
     <t>33811</t>
   </si>
   <si>
-    <t>12272023</t>
+    <t>01182024</t>
+  </si>
+  <si>
+    <t>Producer</t>
+  </si>
+  <si>
+    <t>ivans-test</t>
+  </si>
+  <si>
+    <t>ivans-test2</t>
+  </si>
+  <si>
+    <t>ivans-test3</t>
+  </si>
+  <si>
+    <t>ivans-test4</t>
   </si>
 </sst>
 </file>
@@ -505,33 +520,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D793F7-630D-9741-BAE5-9B86014DDE1E}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.796875" style="1"/>
-    <col min="6" max="6" width="16.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.796875" style="1"/>
-    <col min="8" max="8" width="20.59765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.09765625" style="1" customWidth="1"/>
     <col min="15" max="15" width="34.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.796875" style="1"/>
+    <col min="16" max="16" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -580,8 +597,11 @@
       <c r="P1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -630,8 +650,11 @@
       <c r="P2" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="Q2" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -680,14 +703,115 @@
       <c r="P3" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="Q3" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>33837</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
